--- a/testData/Login_Amway_NewUI.xlsx
+++ b/testData/Login_Amway_NewUI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PraveenKumar187\Documents\S2P\Automation\Content Intelligence\Pytest\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PraveenKumar187\Documents\S2P\Automation\Content Intelligence\Azure POC\TestRepo\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17E02D5-B460-4B82-9D27-6B32D671993E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D9E069-BDD2-4730-A7F9-38D1BBD90BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="132">
   <si>
     <t>URL</t>
   </si>
@@ -418,7 +418,10 @@
     <t>20240426_CI00000002</t>
   </si>
   <si>
-    <t>praveenkumar@98</t>
+    <t>PT1_@ibmea.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>Password_PT_01</t>
   </si>
 </sst>
 </file>
@@ -551,7 +554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -622,9 +625,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -929,7 +929,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -986,10 +986,10 @@
         <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>129</v>
@@ -1182,7 +1182,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId2" display="praveenkumar@98" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="D2" r:id="rId3" tooltip="20231211_CI00000010" display="https://uat.amway.iwforinvoicetopay.ibm.com/agent-table-page/9ebe9032-3164-439a-9dea-c6b6c3ed5bd5" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="A2" r:id="rId4" xr:uid="{6A268691-0ABB-40D7-8497-525F722583B1}"/>
   </hyperlinks>
@@ -1563,151 +1563,151 @@
       <c r="A2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="33">
         <v>3672</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
     </row>
     <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testData/Login_Amway_NewUI.xlsx
+++ b/testData/Login_Amway_NewUI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PraveenKumar187\Documents\S2P\Automation\Content Intelligence\Azure POC\TestRepo\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D9E069-BDD2-4730-A7F9-38D1BBD90BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E1F1C9-D2F9-4F7E-B232-C93466CF2D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/testData/Login_Amway_NewUI.xlsx
+++ b/testData/Login_Amway_NewUI.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PraveenKumar187\Documents\S2P\Automation\Content Intelligence\Azure POC\TestRepo\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E1F1C9-D2F9-4F7E-B232-C93466CF2D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AB9878-3C4D-4430-88DD-42AB6072E064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Header_India" sheetId="2" r:id="rId2"/>
-    <sheet name="Header_GB" sheetId="7" r:id="rId3"/>
-    <sheet name="Line_GB" sheetId="6" r:id="rId4"/>
-    <sheet name="Test Scenarios" sheetId="3" r:id="rId5"/>
-    <sheet name="KVP" sheetId="4" r:id="rId6"/>
-    <sheet name="Control Statements" sheetId="5" r:id="rId7"/>
+    <sheet name="Header_GB" sheetId="3" r:id="rId3"/>
+    <sheet name="Line_GB" sheetId="4" r:id="rId4"/>
+    <sheet name="Executed_Yes_No" sheetId="5" r:id="rId5"/>
+    <sheet name="KVP" sheetId="6" r:id="rId6"/>
+    <sheet name="Control Statements" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="132">
   <si>
     <t>URL</t>
   </si>
@@ -61,6 +61,9 @@
     <t>Location</t>
   </si>
   <si>
+    <t>https://app-aod-openai-i2pciui-demo-weurope-002.azurewebsites.net/</t>
+  </si>
+  <si>
     <t>prave187@in.ibm.com</t>
   </si>
   <si>
@@ -244,6 +247,78 @@
     <t>Supplier VAT Number</t>
   </si>
   <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>Customer Address</t>
+  </si>
+  <si>
+    <t>Plant C&amp;D,Champaca St.Brgy. Fortune18Marikina City</t>
+  </si>
+  <si>
+    <t>Customer Address Recipient</t>
+  </si>
+  <si>
+    <t>FTC Inc</t>
+  </si>
+  <si>
+    <t>IBAN</t>
+  </si>
+  <si>
+    <t>Invoice ID</t>
+  </si>
+  <si>
+    <t>Purchase Order</t>
+  </si>
+  <si>
+    <t>Sub Total</t>
+  </si>
+  <si>
+    <t>Swift Code</t>
+  </si>
+  <si>
+    <t>Total Tax</t>
+  </si>
+  <si>
+    <t>VAT Number</t>
+  </si>
+  <si>
+    <t>Vendor Address</t>
+  </si>
+  <si>
+    <t>Vendor Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>40.9587HL Chesterfield Original KS Box</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>2400.000</t>
+  </si>
+  <si>
+    <t>UoM</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>12.7500</t>
+  </si>
+  <si>
+    <t>Net Amount</t>
+  </si>
+  <si>
+    <t>30600.00</t>
+  </si>
+  <si>
     <t>TC #</t>
   </si>
   <si>
@@ -259,7 +334,7 @@
     <t>Verify End to End functionality for PO document type</t>
   </si>
   <si>
-    <t>Hello Python</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>TC02</t>
@@ -340,88 +415,13 @@
     <t>Last Row For Execution-Alphabets</t>
   </si>
   <si>
-    <t>40.9587HL Chesterfield Original KS Box</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>2400.000</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>UoM</t>
-  </si>
-  <si>
-    <t>12.7500</t>
-  </si>
-  <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
-    <t>30600.00</t>
-  </si>
-  <si>
-    <t>Net Amount</t>
-  </si>
-  <si>
-    <t>https://app-aod-openai-i2pciui-demo-weurope-002.azurewebsites.net/</t>
-  </si>
-  <si>
-    <t>Account Number</t>
-  </si>
-  <si>
-    <t>Customer Address</t>
-  </si>
-  <si>
-    <t>Customer Address Recipient</t>
-  </si>
-  <si>
-    <t>IBAN</t>
-  </si>
-  <si>
-    <t>Invoice ID</t>
-  </si>
-  <si>
-    <t>Purchase Order</t>
-  </si>
-  <si>
-    <t>Sub Total</t>
-  </si>
-  <si>
-    <t>Swift Code</t>
-  </si>
-  <si>
-    <t>Total Tax</t>
-  </si>
-  <si>
-    <t>VAT Number</t>
-  </si>
-  <si>
-    <t>Vendor Address</t>
-  </si>
-  <si>
-    <t>Vendor Name</t>
-  </si>
-  <si>
-    <t>Plant C&amp;D,Champaca St.Brgy. Fortune18Marikina City</t>
-  </si>
-  <si>
-    <t>FTC Inc</t>
-  </si>
-  <si>
-    <t>20240426_CI00000002</t>
-  </si>
-  <si>
     <t>PT1_@ibmea.onmicrosoft.com</t>
   </si>
   <si>
     <t>Password_PT_01</t>
+  </si>
+  <si>
+    <t>20240508_CI00000002</t>
   </si>
 </sst>
 </file>
@@ -929,7 +929,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -983,208 +983,208 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>2990</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>2990</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>2990</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>2990</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>2990</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7">
         <v>2990</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C2" r:id="rId2" display="praveenkumar@98" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D2" r:id="rId3" tooltip="20231211_CI00000010" display="https://uat.amway.iwforinvoicetopay.ibm.com/agent-table-page/9ebe9032-3164-439a-9dea-c6b6c3ed5bd5" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A2" r:id="rId4" xr:uid="{6A268691-0ABB-40D7-8497-525F722583B1}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId3" display="praveenkumar@98" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D2" r:id="rId4" tooltip="20231211_CI00000010" display="https://uat.amway.iwforinvoicetopay.ibm.com/agent-table-page/9ebe9032-3164-439a-9dea-c6b6c3ed5bd5" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1210,313 +1210,313 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1530,7 +1530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CBC5EF-F08A-4DB7-A909-0F96B7C16A2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1547,131 +1547,131 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
     </row>
-    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="B13" s="33">
         <v>3672</v>
@@ -1681,30 +1681,30 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
     </row>
-    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
@@ -1715,7 +1715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1729,44 +1729,44 @@
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1775,11 +1775,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1791,122 +1791,126 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2"/>
     </row>
@@ -1916,7 +1920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1933,30 +1937,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1965,7 +1969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1980,10 +1984,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1996,10 +2000,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">

--- a/testData/Login_Amway_NewUI.xlsx
+++ b/testData/Login_Amway_NewUI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PraveenKumar187\Documents\S2P\Automation\Content Intelligence\Azure POC\TestRepo\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AB9878-3C4D-4430-88DD-42AB6072E064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B95A27-C192-443C-99B2-6B2C60113A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,7 +421,7 @@
     <t>Password_PT_01</t>
   </si>
   <si>
-    <t>20240508_CI00000002</t>
+    <t>20240508_CI00000003</t>
   </si>
 </sst>
 </file>
@@ -929,7 +929,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/testData/Login_Amway_NewUI.xlsx
+++ b/testData/Login_Amway_NewUI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PraveenKumar187\Documents\S2P\Automation\Content Intelligence\Azure POC\TestRepo\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B95A27-C192-443C-99B2-6B2C60113A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121634C2-B28A-4968-9B43-499DC9D34D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,7 +421,7 @@
     <t>Password_PT_01</t>
   </si>
   <si>
-    <t>20240508_CI00000003</t>
+    <t>20240508_CI00000004</t>
   </si>
 </sst>
 </file>
@@ -929,7 +929,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1184,7 +1184,7 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C2" r:id="rId3" display="praveenkumar@98" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D2" r:id="rId4" tooltip="20231211_CI00000010" display="https://uat.amway.iwforinvoicetopay.ibm.com/agent-table-page/9ebe9032-3164-439a-9dea-c6b6c3ed5bd5" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D2" r:id="rId4" display="https://app-aod-openai-i2pciui-demo-weurope-002.azurewebsites.net/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testData/Login_Amway_NewUI.xlsx
+++ b/testData/Login_Amway_NewUI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PraveenKumar187\Documents\S2P\Automation\Content Intelligence\Azure POC\TestRepo\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121634C2-B28A-4968-9B43-499DC9D34D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C935E60D-0ADB-4E15-A863-CFEFEAC1E156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,7 +421,7 @@
     <t>Password_PT_01</t>
   </si>
   <si>
-    <t>20240508_CI00000004</t>
+    <t>20240508_CI00000005</t>
   </si>
 </sst>
 </file>
@@ -929,7 +929,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
